--- a/Medbotsheets.xlsx
+++ b/Medbotsheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melik/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB70218-FC99-A94F-929E-C62CCEB9456F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202E6D10-44A0-6C4F-BDC6-79F1315AA050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Нурофен</t>
   </si>
@@ -28,9 +28,168 @@
     <t>Но-шпа</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-Краткое описание: </t>
+    <t>Тизин</t>
+  </si>
+  <si>
+    <t>Вольтарен</t>
+  </si>
+  <si>
+    <t>Зодак</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>📝 Краткое описание:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Тизин Алерджи — противоаллергический спрей для носа. Он блокирует вещества, вызывающие аллергию, и помогает быстро избавиться от насморка и других неприятных симптомов.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>🔔 Показания к применению:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Препарат используется при аллергическом рините – это насморк, вызванный аллергией (например, на пыльцу растений, пыль, шерсть животных). Его симптомы:
+•	заложенность носа,
+•	выделения из носа (прозрачные и жидкие),
+•	зуд и чихание.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>👨‍⚕️ Как помогает</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+•	Уменьшает выделения из носа.
+•	Снимает зуд и чихание.
+•	Улучшает дыхание через нос.
+Эффект наступает через 5 минут и держится до 12 часов.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">💊 Условия приема и дозировка
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">•	Взрослым и детям от 6 лет: по 2 дозы в каждую ноздрю 2 раза в сутки.
+•	При сильных симптомах можно использовать до 4 раз в день.
+•	Перед применением встряхнуть флакон.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+❗️Противопоказания
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Нельзя использовать при непереносимости компонентов препарата.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⚠️ С осторожностью</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+•	Беременность – только по назначению врача.
+•	Кормление грудью – использовать нельзя.
+•	Пожилой возраст и заболевания почек – с осторожностью.
+Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: https://goo.su/cS3clj</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+📝 Краткое описание: </t>
     </r>
     <r>
       <rPr>
@@ -53,7 +212,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Показания к применению: </t>
+🔔 Показания к применению: </t>
     </r>
     <r>
       <rPr>
@@ -75,7 +234,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Как помогает: </t>
+👨‍⚕️ Как помогает: </t>
     </r>
     <r>
       <rPr>
@@ -97,7 +256,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Условия приема и дозировка: </t>
+💊 Условия приема и дозировка: </t>
     </r>
     <r>
       <rPr>
@@ -120,7 +279,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Противопоказания к приему:
+❗️Противопоказания к приему:
 •	</t>
     </r>
     <r>
@@ -146,7 +305,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-С осторожностью:
+⚠️ С осторожностью:
 •	</t>
     </r>
     <r>
@@ -187,169 +346,16 @@
     </r>
   </si>
   <si>
-    <t>Тизин</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Краткое описание:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Тизин Алерджи — противоаллергический спрей для носа. Он блокирует вещества, вызывающие аллергию, и помогает быстро избавиться от насморка и других неприятных симптомов.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Показания к применению:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Препарат используется при аллергическом рините – это насморк, вызванный аллергией (например, на пыльцу растений, пыль, шерсть животных). Его симптомы:
-•	заложенность носа,
-•	выделения из носа (прозрачные и жидкие),
-•	зуд и чихание.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Как помогает</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-•	Уменьшает выделения из носа.
-•	Снимает зуд и чихание.
-•	Улучшает дыхание через нос.
-Эффект наступает через 5 минут и держится до 12 часов.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Условия приема и дозировка
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">•	Взрослым и детям от 6 лет: по 2 дозы в каждую ноздрю 2 раза в сутки.
-•	При сильных симптомах можно использовать до 4 раз в день.
-•	Перед применением встряхнуть флакон.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Противопоказания
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Нельзя использовать при непереносимости компонентов препарата.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>С осторожностью</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-•	Беременность – только по назначению врача.
-•	Кормление грудью – использовать нельзя.
-•	Пожилой возраст и заболевания почек – с осторожностью.
-Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: https://goo.su/cS3clj</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Краткое описание:</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>📝 Краткое описание:</t>
     </r>
     <r>
       <rPr>
@@ -371,7 +377,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Показания к применению:</t>
+      <t>🔔 Показания к применению:</t>
     </r>
     <r>
       <rPr>
@@ -398,7 +404,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Как помогает:</t>
+      <t>👨‍⚕️ Как помогает:</t>
     </r>
     <r>
       <rPr>
@@ -422,7 +428,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Условия приема и дозировка:</t>
+      <t>💊 Условия приема и дозировка:</t>
     </r>
     <r>
       <rPr>
@@ -447,7 +453,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Противопоказания к приему:</t>
+      <t>❗️ Противопоказания к приему:</t>
     </r>
     <r>
       <rPr>
@@ -462,7 +468,7 @@
 •	Проблемы с сердцем
 •	Возраст до 6 лет
 •	Аллергия на компоненты препарата
-</t>
+⚠️ </t>
     </r>
     <r>
       <rPr>
@@ -502,19 +508,16 @@
     </r>
   </si>
   <si>
-    <t>Вольтарен</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Краткое описание:</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>📝Краткое описание:</t>
     </r>
     <r>
       <rPr>
@@ -536,7 +539,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Показания к применению:</t>
+      <t>🔔 Показания к применению:</t>
     </r>
     <r>
       <rPr>
@@ -549,7 +552,7 @@
       <t xml:space="preserve">
 •	Травмы мягких тканей, такие как ушибы, растяжения и вывихи.
 •	Боль в спине, включая поясничный синдром.
-</t>
+👨‍⚕️ </t>
     </r>
     <r>
       <rPr>
@@ -574,7 +577,7 @@
 •	Снижает воспаление в пораженной области.
 •	Облегчает болевые ощущения.
 •	Уменьшает отечность, улучшая подвижность суставов и общее состояние.
-</t>
+💊 </t>
     </r>
     <r>
       <rPr>
@@ -610,7 +613,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Противопоказания к применению:
+❗️ Противопоказания к применению:
 </t>
     </r>
     <r>
@@ -637,7 +640,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>С осторожностью:</t>
+      <t>⚠️ С осторожностью:</t>
     </r>
     <r>
       <rPr>
@@ -654,25 +657,23 @@
     </r>
   </si>
   <si>
-    <t>Зодак</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Краткое описание:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>📝 Краткое описание:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Зодак — противоаллергический препарат, содержащий цетиризина дигидрохлорид. Он блокирует действие гистамина, вещества, вызывающего аллергические реакции, и таким образом помогает уменьшить симптомы аллергии. 
@@ -688,14 +689,15 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Показания к применению:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+🔔 Показания к применению:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Зодак применяется для облегчения симптомов:
@@ -713,13 +715,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Как помогает:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+      <t>👨‍⚕️ Как помогает:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -737,13 +740,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Условия приема и дозировка:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+      <t>💊 Условия приема и дозировка:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -752,7 +756,7 @@
 •	Дети от 1 года до 6 лет: 2,5 мг (5 капель) два раза в сутки (утром и вечером).
 •	Дети от 6 до 12 месяцев: 2,5 мг (5 капель) один раз в сутки.
 Препарат можно принимать независимо от приема пищи. Капли следует растворять в небольшом количестве воды перед приемом. 
-</t>
+❗️</t>
     </r>
     <r>
       <rPr>
@@ -770,6 +774,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -788,13 +793,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>С осторожностью:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+      <t>⚠️ С осторожностью:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -803,6 +809,310 @@
 Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: https://goo.su/fXAvW43
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+📝 Краткое описание: Лизобакт® – это лекарство для горла и рта. Оно содержит два важных вещества: лизоцим (борется с микробами, вирусами и грибками) и пиридоксин (защищает и восстанавливает слизистую оболочку). Вместе они помогают избавиться от инфекции и ускоряют заживление.
+🔔 Показания к применению:
+Инфекционно-воспалительные заболевания слизистой оболочки полости рта, десен и гортани, включая:
+•	гингивит (воспаление десен);
+•	стоматит (воспаление слизистой оболочки рта);
+•	афтозные изъязвления (язвочки в полости рта);
+•	герпетические поражения слизистой оболочки полости рта (в составе комплексной терапии);
+•	эрозии слизистой оболочки полости рта различной этиологии. 
+•	катаральные явления ВОДП (боль в горле)
+👨‍⚕️ Как помогает:
+•	Уничтожает или подавляет рост патогенных микроорганизмов в полости рта.
+•	Защищает и восстанавливает слизистую оболочку полости рта. 
+💊 Условия приема и дозировка:
+•	Взрослые и дети старше 12 лет: по 2 таблетки 3–4 раза в сутки.
+•	Дети от 3 до 7 лет: по 1 таблетке 3 раза в сутки.
+•	Дети от 7 до 12 лет: по 1 таблетке 4 раза в сутки.
+Таблетки следует медленно рассасывать в полости рта до полного растворения. Не разжевывать и не глотать целиком. Рекомендуется удерживать растворенный препарат во рту как можно дольше для усиления его эффекта. 
+❗️ Противопоказания к приему:
+•	Повышенная чувствительность к компонентам препарата.
+•	Дети до 3 лет. 
+⚠️ С осторожностью:
+•	Наследственная непереносимость лактозы, дефицит лактазы или глюкозо-галактозная мальабсорбция, так как лактоза входит в состав препарата как вспомогательное вещество. 
+Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию.</t>
+  </si>
+  <si>
+    <t>Лизобакт</t>
+  </si>
+  <si>
+    <t>Мезим Форте</t>
+  </si>
+  <si>
+    <t>📝 Краткое описание: Мезим Форте – это препарат, который помогает переваривать пищу. В его составе есть ферменты, которые расщепляют жиры, белки и углеводы, облегчая их усвоение организмом.
+🔔 Показания к применению:
+Препарат используется, если:
+•	Плохо переваривается пища из-за проблем с поджелудочной железой (например, при хроническом воспалении или наследственном заболевании – муковисцидозе).
+•	Есть проблемы с желудком, кишечником, печенью или желчным пузырем, из-за которых появляется тяжесть, вздутие или расстройство стула.
+•	Нужно улучшить пищеварение при переедании или употреблении жирной и тяжелой пищи.
+•	Проводится обследование желудка или кишечника (рентген, УЗИ), и важно убрать лишние газы.
+👨‍⚕️ Как помогает:
+•	Улучшает переваривание пищи.
+•	Снимает тяжесть и вздутие живота.
+•	Помогает организму лучше усваивать полезные вещества.
+💊  Условия приема и дозировка:
+•	Дозировку подбирает врач в зависимости от проблемы.
+•	Таблетки глотают целиком, запивая водой, не разжевывая.
+•	Обычно принимают во время еды.
+❗️ Противопоказания к приему:
+•	Если есть аллергия на компоненты препарата.
+•	При остром воспалении поджелудочной железы.
+⚠️ С осторожностью:
+•	Во время беременности и кормления грудью – только если врач решит, что польза больше возможного риска.
+•	Детям – только по назначению врача.
+Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: vidal.ru</t>
+  </si>
+  <si>
+    <t>📝 Краткое описание: Отривин – это спрей для носа, который помогает быстро снять заложенность. Он сужает сосуды в слизистой оболочке носа, благодаря чему уменьшается отек и становится легче дышать.
+🔔  Показания к применению:
+•	Заложен нос из-за насморка (обычного или вызванного аллергией).
+•	Есть воспаление в пазухах носа (синусит), например, при гайморите.
+•	Болит ухо из-за отита, и нужно уменьшить отек в носоглотке.
+•	Перед медицинским обследованием носа – чтобы уменьшить отек и лучше рассмотреть внутренние структуры.
+👨‍⚕️ Как помогает:
+•	Быстро снимает отек и заложенность носа.
+•	Уменьшает выделение слизи.
+•	Делает дыхание свободным.
+💊  Условия приема и дозировка:
+•	Взрослым и детям с 12 лет: 1 впрыскивание в каждую ноздрю до 3 раз в день.
+•	Детям от 2 до 12 лет: 1 впрыскивание в каждую ноздрю до 3 раз в день (под присмотром взрослых).
+•	Не использовать больше 3 раз в день.
+•	Не применять дольше 5-7 дней подряд, иначе может появиться привыкание.
+❗️ Противопоказания к приему:
+•	Аллергия на препарат или его компоненты.
+•	Операции на мозге в прошлом.
+•	Детям младше 2 лет.
+⚠️ С осторожностью:
+•	Беременность или грудное вскармливание.
+•	Высокое давление.
+•	Проблемы с сердцем или сосудами.
+•	Сахарный диабет.
+•	Заболевания щитовидной железы.
+•	Опухоль надпочечников.
+•	Проблемы с предстательной железой.
+Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: vidal.ru</t>
+  </si>
+  <si>
+    <t>Отривин</t>
+  </si>
+  <si>
+    <t>📝 Краткое описание: Фталазол – это средство для лечения кишечных инфекций. Оно борется с вредными бактериями в кишечнике и помогает уменьшить воспаление. Препарат действует прямо в кишечнике, практически не попадая в кровь.
+🔔 Показания к прменению:
+Фталазол используют при:
+•	Дизентерии – инфекционном заболевании, которое вызывает сильный понос с примесью крови и боли в животе.
+•	Колите – воспалении толстого кишечника, которое сопровождается болями в животе, поносом или запором.
+•	Гастроэнтеритах – инфекциях, которые вызывают тошноту, рвоту, понос и боли в животе.
+👨‍⚕️ Как помогает:
+•	Уничтожает вредные бактерии в кишечнике.
+•	Снимает воспаление и уменьшает симптомы инфекции.
+💊 Условия приема и дозировка:
+Фталазол принимают внутрь, запивая большим количеством воды. Дозировка зависит от заболевания:
+•	При кишечных инфекциях у взрослых:
+o	В первые 1–2 дня – по 2 таблетки (по 1 г) через каждые 4–6 часов.
+o	В следующие 2 дня – по 1 таблетке (по 0,5 г) через каждые 6–8 часов.
+o	В последние 2 дня – по 1 таблетке через каждые 8–12 часов.
+•	Для детей дозу рассчитывают по весу и возрасту, поэтому схема лечения подбирается врачом.
+•	Для профилактики инфекций после операций:
+o	Врач назначает индивидуальную схему приема, обычно препарат принимают несколько дней перед и после операции.
+⚠ Важно:
+•	Курс лечения нельзя прерывать, даже если стало лучше.
+•	Если через 2 дня нет улучшения, нужно обратиться к врачу.
+•	Запивать только водой, не использовать соки или молоко.
+❗️ Противопоказания к приему
+•	Если у вас аллергия на Фталазол или другие лекарства из этой группы.
+•	Если у вас серьезные заболевания печени или почек.
+•	При воспалении почек (гломерулонефрит).
+⚠ С осторожностью:
+Перед приемом лучше проконсультироваться с врачом, если у вас:
+•	Заболевания почек.
+•	Беременность или период грудного вскармливания.
+•	Маленький возраст (детям препарат назначает только врач).
+Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: vidal.ru</t>
+  </si>
+  <si>
+    <t>Фталазол</t>
+  </si>
+  <si>
+    <t>📝 Краткое описание: Супрастин — это противоаллергическое средство, которое помогает уменьшить или устранить симптомы аллергии, такие как зуд, высыпания и отеки. 
+🔔 Показания к приему:
+•	Сыпь, покраснение и зуд на коже – например, при крапивнице, экземе или раздражении после контакта с аллергеном. 
+•	Аллергия на пыльцу, шерсть животных, пыль или другие вещества – если у вас появляется насморк, заложенность носа, чихание или слезятся глаза. 
+•	Реакция на лекарства или пищевые продукты – если появились высыпания, зуд или отек. 
+•	Укусы насекомых – когда место укуса сильно чешется и отекает. 
+•	Отек Квинке – редкая, но опасная аллергическая реакция, при которой резко опухает лицо, губы, веки или горло (нужна срочная медицинская помощь, но Супрастин может быть частью лечения).
+👨‍⚕️ Как помогает:
+•	Блокирует действие гистамина — вещества, вызывающего аллергические симптомы.
+•	Уменьшает зуд, отек и покраснение кожи.
+•	Обладает седативным эффектом, что может помочь при раздражении и беспокойстве, связанных с аллергией. 
+💊 Условия приема и дозировка:
+•	Взрослым: по 1 таблетке (25 мг) 3-4 раза в день.
+•	Детям от 6 до 14 лет: по 1/2 таблетки (12,5 мг) 2-3 раза в день.
+•	Детям от 1 до 6 лет: по 1/4 таблетки (6,25 мг) 2-3 раза в день.
+•	Детям от 1 месяца до 1 года: по 1/4 таблетки (6,25 мг) 2-3 раза в день (таблетку предварительно растереть в порошок и смешать с детским питанием).
+Таблетки следует принимать внутрь во время еды, запивая достаточным количеством воды. Длительность курса лечения определяется врачом в зависимости от характера заболевания и достигнутого эффекта. 
+❗️ Противопоказания к приему:
+•	Повышенная чувствительность к хлоропирамину или другим компонентам препарата.
+•	Острый приступ бронхиальной астмы.
+•	Новорожденные дети (до 1 месяца).
+•	Беременность и период грудного вскармливания. 
+⚠ С осторожностью:
+•	Пациенты пожилого возраста.
+•	Пациенты с нарушением функции печени и/или почек.
+•	Пациенты с заболеваниями сердечно-сосудистой системы.
+•	Пациенты с закрытоугольной глаукомой, задержкой мочи и гипертрофией предстательной железы. 
+Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: https://goo.su/v2D79VW</t>
+  </si>
+  <si>
+    <t>Супрастин</t>
+  </si>
+  <si>
+    <t>📝 Краткое описание: Назонекс — это гормональный препарат, спрей для носа, который помогает при аллергии и воспалении носовых пазух. Он уменьшает отек, заложенность, чихание и другие неприятные симптомы. Препарат действует прямо в носу и помогает легче дышать. 
+Что такое носовые пазухи?
+Носовые пазухи — это небольшие воздушные пространства внутри костей лица вокруг носа. Они помогают увлажнять воздух, который мы вдыхаем, и защищают организм от микробов. Когда пазухи воспаляются, может появиться заложенность, давление в области носа и лба, а также насморк.
+🔔 Показания к приему:
+•	Сезонный и круглогодичный аллергический ринит: Назонекс применяется для лечения симптомов аллергического насморка, таких как чихание, зуд в носу, заложенность и выделения из носа.
+•	Острый риносинусит без признаков тяжелой бактериальной инфекции: Назонекс используется для облегчения симптомов воспаления носовых пазух, таких как заложенность носа, выделения и давление в области лица.
+👨‍⚕️ Как помогает:
+•	Уменьшает воспаление в слизистой оболочке носа.
+•	Снижает проявления аллергических реакций.
+•	Облегчает дыхание через нос.
+•	Уменьшает отек и раздражение слизистой оболочки носа.
+💊 Условия приема и дозировка:
+•	Взрослым и детям старше 12 лет при аллергическом рините: рекомендуется по 2 впрыскивания в каждую ноздрю 1 раз в сутки. После достижения лечебного эффекта дозу можно снизить до 1 впрыскивания в каждую ноздрю 1 раз в сутки) 
+•	Дети в возрасте от 2 до 11 лет: Рекомендуемая терапевтическая доза - 1 впрыскивание в каждую ноздрю 1 раз/сут .
+❗️ Противопоказания к приему:
+•	Повышенная чувствительность к мометазону или другим компонентам препарата.
+•	Нелеченые локальные инфекции слизистой оболочки носа, такие как герпес.
+•	Недавние хирургические вмешательства или травмы носа до полного заживления ран.
+•	Дети до 2 лет
+⚠ С осторожностью:
+•	При наличии туберкулезной инфекции (активной или латентной).
+•	При наличии нелеченой грибковой, бактериальной, системной вирусной инфекции или инфекции, вызванной Herpes simplex, с поражением глаз.
+•	При наличии нелеченной локальной инфекции с вовлечением слизистой оболочки носа.
+•	При беременности и в период грудного вскармливания применение препарата возможно только в случаях, когда ожидаемая польза для матери превышает потенциальный риск для плода или ребенка.
+Если у вас есть противопоказания или вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: https://goo.su/tQ2r0</t>
+  </si>
+  <si>
+    <t>Назонекс</t>
+  </si>
+  <si>
+    <t>📝 Краткое описание: Спазмалгон — это комбинированный препарат, который помогает уменьшить боль и спазмы. Он содержит три активных вещества: метамизол натрия (снимает боль и жар), питофенон (расслабляет мышцы) и фенпивериния бромид (усиливает расслабляющее действие на мышцы). 
+🔔 Показания к приему:
+•	Боли при спазмах внутренних органов: почечные и печеночные колики, спазмы кишечника, болезненные менструации.
+•	Боли в суставах, нервные боли, боли в мышцах.
+👨‍⚕️ Как помогает: Спазмалгон одновременно снимает боль и расслабляет мышцы. Он особенно эффективен при спазмах внутренних органов, например, когда болит живот из-за кишечных коликов или менструации. Также помогает при болях в мышцах, суставах и нервах, если они вызваны спазмами.
+💊 Условия приема и дозировка:
+•	Взрослым и детям старше 15 лет: по 1-2 таблетки 2-3 раза в день после еды. Максимальная суточная доза — 6 таблеток. Продолжительность приема — не более 5 дней.
+•	Детям от 13 до 15 лет: по 1 таблетке 2-3 раза в день. Максимальная суточная доза — 3 таблетки.
+•	Детям от 9 до 12 лет: по 1/2 таблетки 2-3 раза в день. Максимальная суточная доза — 2 таблетки.
+Увеличение дозы или продолжительности лечения возможно только по рекомендации врача. 
+❗️ Противопоказания к приему:
+•	Повышенная чувствительность к компонентам препарата.
+•	Угнетение костномозгового кроветворения.
+•	Тяжелые нарушения функции печени или почек.
+•	Тахиаритмии.
+•	Дефицит глюкозо-6-фосфатдегидрогеназы.
+•	Беременность и период грудного вскармливания.
+•	Детский возраст до 9 лет. 
+⚠ С осторожностью:
+•	При артериальной гипотензии.
+•	При бронхоспазме.
+•	При нарушениях функции печени или почек легкой и средней степени тяжести.
+•	При повышенной чувствительности к нестероидным противовоспалительным препаратам или ненаркотическим анальгетикам.
+Если у вас есть противопоказания или вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: https://goo.su/lOWZhtX</t>
+  </si>
+  <si>
+    <t>Спазмалгон</t>
+  </si>
+  <si>
+    <t>📝 Краткое описание: Цитрамон П — это комбинированное лекарственное средство, содержащее три активных компонента: ацетилсалициловую кислоту (аспирин), парацетамол и кофеин. Ацетилсалициловая кислота снижает воспаление и температуру, парацетамол уменьшает боль и жар, а кофеин усиливает действие первых двух компонентов и повышает тонус сосудов. 
+🔔 Показания к применению:
+•	Болевой синдром слабой и умеренной выраженности: головная боль, зубная боль, мышечные боли, боли при менструации.
+•	Лихорадочные состояния: повышенная температура тела при простудных и других инфекционно-воспалительных заболеваниях
+👨‍⚕️ Как помогает: Цитрамон П сочетает в себе обезболивающее, жаропонижающее и противовоспалительное действия. Ацетилсалициловая кислота и парацетамол снижают боль и температуру, а кофеин улучшает кровообращение и усиливает эффект других компонентов. 
+💊 Условия приема и дозировка:
+•	Взрослым и детям старше 15 лет: принимать по 1 таблетке каждые 4 часа после еды. При болевом синдроме можно принимать по 1–2 таблетки. Средняя суточная доза — 3–4 таблетки, максимальная суточная доза — 8 таблеток. Курс лечения не должен превышать 7–10 дней. Для уменьшения раздражающего действия на желудочно-кишечный тракт рекомендуется запивать таблетку молоком или щелочной минеральной водой. 
+❗️ Противопоказания к приему:
+•	Повышенная чувствительность к компонентам препарата.
+•	Эрозивно-язвенные заболевания желудочно-кишечного тракта в стадии обострения.
+•	Кровотечения из желудочно-кишечного тракта.
+•	Бронхиальная астма, индуцированная приемом салицилатов или других нестероидных противовоспалительных препаратов.
+•	Почечная или печеночная недостаточность.
+•	Беременность и период грудного вскармливания.
+•	Детский возраст до 15 лет 
+⚠ С осторожностью:
+•	При подагре.
+•	При заболеваниях печени.
+•	При пожилом возрасте. 
+Если у вас есть противопоказания или вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: https://goo.su/Id3kwJ</t>
+  </si>
+  <si>
+    <t>Цитрамон П</t>
+  </si>
+  <si>
+    <t>📝 Краткое описание: Гексорал — это антисептический препарат для местного применения в виде аэрозоля, который используется для лечения инфекционно-воспалительных заболеваний полости рта и глотки. Его активное вещество, гексэтидин, обладает широким спектром антибактериального и противогрибкового действия. 
+🔔 Показания к применению:
+•	Инфекционно-воспалительные заболевания полости рта и глотки: 
+o	ангина, тонзиллит;
+o	фарингит;
+o	гингивит, стоматит;
+o	пародонтоз;
+o	грибковые инфекции, в частности кандидоз.
+•	Гигиена полости рта, включая устранение неприятного запаха.
+👨‍⚕️ Как помогает: Гексорал — это спрей для горла, который убивает бактерии и грибки. Его используют при воспалениях и инфекциях во рту и горле, например, при ангине, фарингите или стоматите. Гексорал помогает уменьшить воспаление, убивает вредные микроорганизмы и немного обезболивает.
+💊 Условия приема и дозировка:
+•	Взрослые и дети старше 6 лет: 
+o	Орошение пораженных участков при задержке дыхания: по 1 впрыскиванию в течение 1–2 секунд 2 раза в сутки, после еды.
+•	Дети от 3 до 6 лет: 
+o	Применение возможно после консультации с медицинским работником.
+❗️ Противопоказания к приему:
+•	Повышенная чувствительность к компонентам препарата.
+•	Возраст до 3 лет.
+⚠ С осторожностью:
+•	При беременности и в период грудного вскармливания применять только после консультации с врачом.
+⚠ Побочные действия:
+•	В редких случаях возможны аллергические реакции, ощущение жжения или сухости в полости рта.
+⚠ Особые указания:
+•	Препарат следует применять после еды.
+•	Избегать проглатывания раствора.
+•	При длительном применении рекомендуется контролировать состояние слизистой оболочки полости рта.
+Если у вас есть противопоказания или вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: https://goo.su/0FTfbB</t>
+  </si>
+  <si>
+    <t>Гексорал</t>
+  </si>
+  <si>
+    <t>В:
+•	Вольтарен
+Г:
+•	Гексорал
+З:
+•	Зодак
+Л: 
+•	Лизобакт
+М:
+•	Мезим Форте
+Н:
+•	Назонекс
+•	Нурофен
+•	Но-шпа
+О:
+•	Отривин
+С:
+•	Супрастин
+•	Спазмалгон
+•	
+Т:
+•	Тизин
+Ц: 
+•	Цитрамон П</t>
+  </si>
+  <si>
+    <t>Алфавитный указатель лекарств</t>
   </si>
 </sst>
 </file>
@@ -883,7 +1193,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -894,6 +1203,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1172,10 +1482,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1184,43 +1494,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="333" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="368" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="199" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="104" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Medbotsheets.xlsx
+++ b/Medbotsheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melik/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202E6D10-44A0-6C4F-BDC6-79F1315AA050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20397C31-A648-D84F-830F-6EAD13610B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Нурофен</t>
   </si>
@@ -811,60 +811,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">
-📝 Краткое описание: Лизобакт® – это лекарство для горла и рта. Оно содержит два важных вещества: лизоцим (борется с микробами, вирусами и грибками) и пиридоксин (защищает и восстанавливает слизистую оболочку). Вместе они помогают избавиться от инфекции и ускоряют заживление.
-🔔 Показания к применению:
-Инфекционно-воспалительные заболевания слизистой оболочки полости рта, десен и гортани, включая:
-•	гингивит (воспаление десен);
-•	стоматит (воспаление слизистой оболочки рта);
-•	афтозные изъязвления (язвочки в полости рта);
-•	герпетические поражения слизистой оболочки полости рта (в составе комплексной терапии);
-•	эрозии слизистой оболочки полости рта различной этиологии. 
-•	катаральные явления ВОДП (боль в горле)
-👨‍⚕️ Как помогает:
-•	Уничтожает или подавляет рост патогенных микроорганизмов в полости рта.
-•	Защищает и восстанавливает слизистую оболочку полости рта. 
-💊 Условия приема и дозировка:
-•	Взрослые и дети старше 12 лет: по 2 таблетки 3–4 раза в сутки.
-•	Дети от 3 до 7 лет: по 1 таблетке 3 раза в сутки.
-•	Дети от 7 до 12 лет: по 1 таблетке 4 раза в сутки.
-Таблетки следует медленно рассасывать в полости рта до полного растворения. Не разжевывать и не глотать целиком. Рекомендуется удерживать растворенный препарат во рту как можно дольше для усиления его эффекта. 
-❗️ Противопоказания к приему:
-•	Повышенная чувствительность к компонентам препарата.
-•	Дети до 3 лет. 
-⚠️ С осторожностью:
-•	Наследственная непереносимость лактозы, дефицит лактазы или глюкозо-галактозная мальабсорбция, так как лактоза входит в состав препарата как вспомогательное вещество. 
-Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию.</t>
-  </si>
-  <si>
     <t>Лизобакт</t>
   </si>
   <si>
     <t>Мезим Форте</t>
-  </si>
-  <si>
-    <t>📝 Краткое описание: Мезим Форте – это препарат, который помогает переваривать пищу. В его составе есть ферменты, которые расщепляют жиры, белки и углеводы, облегчая их усвоение организмом.
-🔔 Показания к применению:
-Препарат используется, если:
-•	Плохо переваривается пища из-за проблем с поджелудочной железой (например, при хроническом воспалении или наследственном заболевании – муковисцидозе).
-•	Есть проблемы с желудком, кишечником, печенью или желчным пузырем, из-за которых появляется тяжесть, вздутие или расстройство стула.
-•	Нужно улучшить пищеварение при переедании или употреблении жирной и тяжелой пищи.
-•	Проводится обследование желудка или кишечника (рентген, УЗИ), и важно убрать лишние газы.
-👨‍⚕️ Как помогает:
-•	Улучшает переваривание пищи.
-•	Снимает тяжесть и вздутие живота.
-•	Помогает организму лучше усваивать полезные вещества.
-💊  Условия приема и дозировка:
-•	Дозировку подбирает врач в зависимости от проблемы.
-•	Таблетки глотают целиком, запивая водой, не разжевывая.
-•	Обычно принимают во время еды.
-❗️ Противопоказания к приему:
-•	Если есть аллергия на компоненты препарата.
-•	При остром воспалении поджелудочной железы.
-⚠️ С осторожностью:
-•	Во время беременности и кормления грудью – только если врач решит, что польза больше возможного риска.
-•	Детям – только по назначению врача.
-Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: vidal.ru</t>
   </si>
   <si>
     <t>📝 Краткое описание: Отривин – это спрей для носа, который помогает быстро снять заложенность. Он сужает сосуды в слизистой оболочке носа, благодаря чему уменьшается отек и становится легче дышать.
@@ -1086,12 +1036,98 @@
     <t>Гексорал</t>
   </si>
   <si>
-    <t>В:
+    <t>Алфавитный указатель лекарств</t>
+  </si>
+  <si>
+    <t>📝 Краткое описание:
+Мезим Форте – это препарат, который помогает переваривать пищу. В его составе есть ферменты, которые расщепляют жиры, белки и углеводы, облегчая их усвоение организмом.
+🔔 Показания к применению:
+Препарат используется, если:
+•	Плохо переваривается пища из-за проблем с поджелудочной железой (например, при хроническом воспалении или наследственном заболевании – муковисцидозе).
+•	Есть проблемы с желудком, кишечником, печенью или желчным пузырем, из-за которых появляется тяжесть, вздутие или расстройство стула.
+•	Нужно улучшить пищеварение при переедании или употреблении жирной и тяжелой пищи.
+•	Проводится обследование желудка или кишечника (рентген, УЗИ), и важно убрать лишние газы.
+👨‍⚕️ Как помогает:
+•	Улучшает переваривание пищи.
+•	Снимает тяжесть и вздутие живота.
+•	Помогает организму лучше усваивать полезные вещества.
+💊  Условия приема и дозировка:
+•	Дозировку подбирает врач в зависимости от проблемы.
+•	Таблетки глотают целиком, запивая водой, не разжевывая.
+•	Обычно принимают во время еды.
+❗️ Противопоказания к приему:
+•	Если есть аллергия на компоненты препарата.
+•	При остром воспалении поджелудочной железы.
+⚠️ С осторожностью:
+•	Во время беременности и кормления грудью – только если врач решит, что польза больше возможного риска.
+•	Детям – только по назначению врача.
+Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: vidal.ru</t>
+  </si>
+  <si>
+    <t>📝 Краткое описание: Лизобакт® – это лекарство для горла и рта. Оно содержит два важных вещества: лизоцим (борется с микробами, вирусами и грибками) и пиридоксин (защищает и восстанавливает слизистую оболочку). Вместе они помогают избавиться от инфекции и ускоряют заживление.
+🔔 Показания к применению:
+Инфекционно-воспалительные заболевания слизистой оболочки полости рта, десен и гортани, включая:
+• гингивит (воспаление десен);
+• стоматит (воспаление слизистой оболочки рта);
+• афтозные изъязвления (язвочки в полости рта);
+• герпетические поражения слизистой оболочки полости рта (в составе комплексной терапии);
+• эрозии слизистой оболочки полости рта различной этиологии. 
+• катаральные явления ВОДП (боль в горле)
+👨‍⚕️ Как помогает:
+• Уничтожает или подавляет рост патогенных микроорганизмов в полости рта.
+• Защищает и восстанавливает слизистую оболочку полости рта. 
+💊 Условия приема и дозировка:
+• Взрослые и дети старше 12 лет: по 2 таблетки 3–4 раза в сутки.
+• Дети от 3 до 7 лет: по 1 таблетке 3 раза в сутки.
+• Дети от 7 до 12 лет: по 1 таблетке 4 раза в сутки.
+Таблетки следует медленно рассасывать в полости рта до полного растворения. Не разжевывать и не глотать целиком. Рекомендуется удерживать растворенный препарат во рту как можно дольше для усиления его эффекта. 
+❗️ Противопоказания к приему:
+• Повышенная чувствительность к компонентам препарата.
+• Дети до 3 лет. 
+⚠️ С осторожностью:
+• Наследственная непереносимость лактозы, дефицит лактазы или глюкозо-галактозная мальабсорбция, так как лактоза входит в состав препарата как вспомогательное вещество. 
+Если у Вас есть противопоказания или Вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию.</t>
+  </si>
+  <si>
+    <t>📝 Краткое описание:
+Зиртек— противоаллергический препарат, блокатор гистаминовых H₁-рецепторов. Это значит, что он предотвращает действие гистамина — вещества, вызывающего аллергические реакции (зуд, отек, насморк). Блокируя H₁-рецепторы, Зиртек снижает выраженность аллергии и предотвращает ее развитие.
+🔔  Показания к применению:
+•	Сезонный и круглогодичный аллергический ринит и конъюнктивит (чихание, зуд, насморк, слезотечение, покраснение глаз).
+•	Сенная лихорадка (поллиноз).
+•	Крапивница, включая хроническую идиопатическую.
+•	Отек Квинке.
+•	Другие аллергические дерматозы, сопровождающиеся зудом и высыпаниями.
+👨‍⚕️ Как помогает:
+•	Снижает выраженность аллергических реакций.
+•	Облегчает симптомы аллергии: зуд, чихание, насморк, слезотечение.
+•	Уменьшает кожные проявления аллергии, такие как высыпания и зуд.
+💊 Условия приема и дозировка:
+•	Взрослые и дети старше 6 лет: 10 мг (1 таблетка или 20 капель) 1 раз в сутки или по 5 мг (1/2 таблетки или 10 капель) 2 раза в сутки.
+•	Дети от 2 до 6 лет: 5 мг (10 капель) 1 раз в сутки или по 2,5 мг (5 капель) 2 раза в сутки.
+•	Дети от 1 до 2 лет: 2,5 мг (5 капель) 2 раза в сутки.
+•	Дети от 6 месяцев до 1 года: 2,5 мг (5 капель) 1 раз в сутки.
+❗️ Противопоказания к приему:
+•	Терминальная стадия почечной недостаточности (клиренс креатинина).
+•	Беременность и период грудного вскармливания.
+•	Детский возраст до 6 лет (для таблеток), до 6 месяцев (для капель).
+•	Повышенная чувствительность к компонентам препарата или гидроксизину.
+⚠ С осторожностью:
+•	Хроническая почечная недостаточность (требуется коррекция дозы).
+•	Пожилой возраст (возможное снижение клубочковой фильтрации).
+Если у вас есть противопоказания или вы находитесь в группе тех, кому нужно применять препарат с осторожностью, перейдите по этой ссылке для того, чтобы уточнить информацию: https://goo.su/669xlf</t>
+  </si>
+  <si>
+    <t>Зиртек</t>
+  </si>
+  <si>
+    <t>авитный указатель лекарств
+В:
 •	Вольтарен
 Г:
 •	Гексорал
 З:
 •	Зодак
+•	Зиртек
 Л: 
 •	Лизобакт
 М:
@@ -1105,14 +1141,10 @@
 С:
 •	Супрастин
 •	Спазмалгон
-•	
 Т:
 •	Тизин
 Ц: 
 •	Цитрамон П</t>
-  </si>
-  <si>
-    <t>Алфавитный указатель лекарств</t>
   </si>
 </sst>
 </file>
@@ -1482,10 +1514,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1535,82 +1567,90 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
